--- a/trunk/03_Testing/QA_Testing/TestCases_310320.xlsx
+++ b/trunk/03_Testing/QA_Testing/TestCases_310320.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\OTTOPro\Release - 31st Mar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OTTOPro\trunk\03_Testing\QA_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="513">
   <si>
     <t xml:space="preserve">Project Name: </t>
   </si>
@@ -1853,11 +1853,14 @@
 2.  Click on the save button
 </t>
   </si>
+  <si>
+    <t>sdfsafa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2063,6 +2066,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2074,12 +2083,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2396,11 +2399,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2412,11 +2415,11 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
@@ -2428,11 +2431,11 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
@@ -2444,11 +2447,11 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="7"/>
       <c r="E4" s="2" t="s">
         <v>8</v>
@@ -2464,43 +2467,43 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="4"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="4"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="4"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="11"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -2548,7 +2551,7 @@
       <c r="A13" s="16">
         <v>1</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="35" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="29" t="s">
@@ -2580,7 +2583,7 @@
       <c r="A14" s="16">
         <v>2</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="30"/>
       <c r="D14" s="15" t="s">
         <v>48</v>
@@ -2606,7 +2609,7 @@
       <c r="A15" s="16">
         <v>3</v>
       </c>
-      <c r="B15" s="34"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="30"/>
       <c r="D15" s="15" t="s">
         <v>50</v>
@@ -2632,7 +2635,7 @@
       <c r="A16" s="16">
         <v>4</v>
       </c>
-      <c r="B16" s="34"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="30"/>
       <c r="D16" s="14" t="s">
         <v>51</v>
@@ -2660,7 +2663,7 @@
       <c r="A17" s="16">
         <v>5</v>
       </c>
-      <c r="B17" s="34"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="30"/>
       <c r="D17" s="14" t="s">
         <v>52</v>
@@ -2688,7 +2691,7 @@
       <c r="A18" s="16">
         <v>6</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="30"/>
       <c r="D18" s="14" t="s">
         <v>53</v>
@@ -2716,7 +2719,7 @@
       <c r="A19" s="16">
         <v>7</v>
       </c>
-      <c r="B19" s="34"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="30"/>
       <c r="D19" s="15" t="s">
         <v>54</v>
@@ -2744,7 +2747,7 @@
       <c r="A20" s="16">
         <v>8</v>
       </c>
-      <c r="B20" s="34"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="30"/>
       <c r="D20" s="15" t="s">
         <v>55</v>
@@ -2772,7 +2775,7 @@
       <c r="A21" s="16">
         <v>9</v>
       </c>
-      <c r="B21" s="34"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="30"/>
       <c r="D21" s="15" t="s">
         <v>56</v>
@@ -2798,7 +2801,7 @@
       <c r="A22" s="16">
         <v>10</v>
       </c>
-      <c r="B22" s="34"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="30"/>
       <c r="D22" s="15" t="s">
         <v>57</v>
@@ -2826,7 +2829,7 @@
       <c r="A23" s="16">
         <v>11</v>
       </c>
-      <c r="B23" s="34"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="30"/>
       <c r="D23" s="15" t="s">
         <v>58</v>
@@ -2854,7 +2857,7 @@
       <c r="A24" s="16">
         <v>12</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="31"/>
       <c r="D24" s="15" t="s">
         <v>97</v>
@@ -2880,7 +2883,7 @@
       <c r="A25" s="16">
         <v>13</v>
       </c>
-      <c r="B25" s="34"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="29" t="s">
         <v>35</v>
       </c>
@@ -2910,7 +2913,7 @@
       <c r="A26" s="16">
         <v>14</v>
       </c>
-      <c r="B26" s="34"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="30"/>
       <c r="D26" s="15" t="s">
         <v>59</v>
@@ -2936,7 +2939,7 @@
       <c r="A27" s="16">
         <v>15</v>
       </c>
-      <c r="B27" s="34"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="30"/>
       <c r="D27" s="15" t="s">
         <v>61</v>
@@ -2962,7 +2965,7 @@
       <c r="A28" s="16">
         <v>16</v>
       </c>
-      <c r="B28" s="34"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="30"/>
       <c r="D28" s="15" t="s">
         <v>97</v>
@@ -2988,7 +2991,7 @@
       <c r="A29" s="16">
         <v>17</v>
       </c>
-      <c r="B29" s="34"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="31"/>
       <c r="D29" s="15" t="s">
         <v>62</v>
@@ -3016,7 +3019,7 @@
       <c r="A30" s="16">
         <v>18</v>
       </c>
-      <c r="B30" s="34"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="29" t="s">
         <v>36</v>
       </c>
@@ -3046,7 +3049,7 @@
       <c r="A31" s="16">
         <v>19</v>
       </c>
-      <c r="B31" s="34"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="30"/>
       <c r="D31" s="15" t="s">
         <v>64</v>
@@ -3072,7 +3075,7 @@
       <c r="A32" s="16">
         <v>20</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="30"/>
       <c r="D32" s="15" t="s">
         <v>65</v>
@@ -3100,7 +3103,7 @@
       <c r="A33" s="16">
         <v>21</v>
       </c>
-      <c r="B33" s="34"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="30"/>
       <c r="D33" s="15" t="s">
         <v>66</v>
@@ -3128,7 +3131,7 @@
       <c r="A34" s="16">
         <v>22</v>
       </c>
-      <c r="B34" s="34"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="30"/>
       <c r="D34" s="15" t="s">
         <v>67</v>
@@ -3156,7 +3159,7 @@
       <c r="A35" s="16">
         <v>23</v>
       </c>
-      <c r="B35" s="34"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="30"/>
       <c r="D35" s="15" t="s">
         <v>68</v>
@@ -3182,7 +3185,7 @@
       <c r="A36" s="16">
         <v>24</v>
       </c>
-      <c r="B36" s="34"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="30"/>
       <c r="D36" s="15" t="s">
         <v>69</v>
@@ -3210,7 +3213,7 @@
       <c r="A37" s="16">
         <v>25</v>
       </c>
-      <c r="B37" s="34"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="30"/>
       <c r="D37" s="15" t="s">
         <v>70</v>
@@ -3238,7 +3241,7 @@
       <c r="A38" s="16">
         <v>26</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="30"/>
       <c r="D38" s="15" t="s">
         <v>71</v>
@@ -3264,7 +3267,7 @@
       <c r="A39" s="16">
         <v>27</v>
       </c>
-      <c r="B39" s="34"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="30"/>
       <c r="D39" s="15" t="s">
         <v>72</v>
@@ -3290,7 +3293,7 @@
       <c r="A40" s="16">
         <v>28</v>
       </c>
-      <c r="B40" s="34"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="30"/>
       <c r="D40" s="15" t="s">
         <v>73</v>
@@ -3318,7 +3321,7 @@
       <c r="A41" s="16">
         <v>29</v>
       </c>
-      <c r="B41" s="34"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="30"/>
       <c r="D41" s="15" t="s">
         <v>74</v>
@@ -3346,7 +3349,7 @@
       <c r="A42" s="16">
         <v>30</v>
       </c>
-      <c r="B42" s="34"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="30"/>
       <c r="D42" s="15" t="s">
         <v>75</v>
@@ -3354,7 +3357,7 @@
       <c r="E42" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="F42" s="36" t="s">
+      <c r="F42" s="32" t="s">
         <v>151</v>
       </c>
       <c r="G42" s="15" t="s">
@@ -3374,7 +3377,7 @@
       <c r="A43" s="16">
         <v>31</v>
       </c>
-      <c r="B43" s="34"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="31"/>
       <c r="D43" s="15" t="s">
         <v>76</v>
@@ -3382,7 +3385,7 @@
       <c r="E43" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="F43" s="37"/>
+      <c r="F43" s="33"/>
       <c r="G43" s="15" t="s">
         <v>170</v>
       </c>
@@ -3400,7 +3403,7 @@
       <c r="A44" s="16">
         <v>32</v>
       </c>
-      <c r="B44" s="34"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="29" t="s">
         <v>37</v>
       </c>
@@ -3430,7 +3433,7 @@
       <c r="A45" s="16">
         <v>33</v>
       </c>
-      <c r="B45" s="34"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="30"/>
       <c r="D45" s="15" t="s">
         <v>78</v>
@@ -3458,7 +3461,7 @@
       <c r="A46" s="16">
         <v>34</v>
       </c>
-      <c r="B46" s="34"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="31"/>
       <c r="D46" s="15" t="s">
         <v>79</v>
@@ -3484,7 +3487,7 @@
       <c r="A47" s="16">
         <v>35</v>
       </c>
-      <c r="B47" s="34"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="29" t="s">
         <v>38</v>
       </c>
@@ -3514,7 +3517,7 @@
       <c r="A48" s="16">
         <v>36</v>
       </c>
-      <c r="B48" s="34"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="30"/>
       <c r="D48" s="14" t="s">
         <v>80</v>
@@ -3540,7 +3543,7 @@
       <c r="A49" s="16">
         <v>37</v>
       </c>
-      <c r="B49" s="34"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="30"/>
       <c r="D49" s="14" t="s">
         <v>81</v>
@@ -3566,7 +3569,7 @@
       <c r="A50" s="16">
         <v>38</v>
       </c>
-      <c r="B50" s="34"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="30"/>
       <c r="D50" s="15" t="s">
         <v>82</v>
@@ -3592,7 +3595,7 @@
       <c r="A51" s="16">
         <v>39</v>
       </c>
-      <c r="B51" s="34"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="31"/>
       <c r="D51" s="15" t="s">
         <v>99</v>
@@ -3616,7 +3619,7 @@
       <c r="A52" s="16">
         <v>40</v>
       </c>
-      <c r="B52" s="34"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="29" t="s">
         <v>39</v>
       </c>
@@ -3644,7 +3647,7 @@
       <c r="A53" s="16">
         <v>41</v>
       </c>
-      <c r="B53" s="34"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="30"/>
       <c r="D53" s="15" t="s">
         <v>48</v>
@@ -3670,7 +3673,7 @@
       <c r="A54" s="16">
         <v>42</v>
       </c>
-      <c r="B54" s="34"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="31"/>
       <c r="D54" s="15" t="s">
         <v>50</v>
@@ -3696,7 +3699,7 @@
       <c r="A55" s="16">
         <v>43</v>
       </c>
-      <c r="B55" s="34"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="29" t="s">
         <v>40</v>
       </c>
@@ -3724,7 +3727,7 @@
       <c r="A56" s="16">
         <v>44</v>
       </c>
-      <c r="B56" s="34"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="30"/>
       <c r="D56" s="15" t="s">
         <v>59</v>
@@ -3750,7 +3753,7 @@
       <c r="A57" s="16">
         <v>45</v>
       </c>
-      <c r="B57" s="34"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="31"/>
       <c r="D57" s="15" t="s">
         <v>61</v>
@@ -3776,7 +3779,7 @@
       <c r="A58" s="16">
         <v>46</v>
       </c>
-      <c r="B58" s="34"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="17" t="s">
         <v>100</v>
       </c>
@@ -3804,7 +3807,7 @@
       <c r="A59" s="16">
         <v>47</v>
       </c>
-      <c r="B59" s="34"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="29" t="s">
         <v>41</v>
       </c>
@@ -3832,7 +3835,7 @@
       <c r="A60" s="16">
         <v>48</v>
       </c>
-      <c r="B60" s="34"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="30"/>
       <c r="D60" s="15" t="s">
         <v>48</v>
@@ -3858,7 +3861,7 @@
       <c r="A61" s="16">
         <v>49</v>
       </c>
-      <c r="B61" s="34"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="31"/>
       <c r="D61" s="15" t="s">
         <v>50</v>
@@ -3884,7 +3887,7 @@
       <c r="A62" s="16">
         <v>50</v>
       </c>
-      <c r="B62" s="34"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="15" t="s">
         <v>42</v>
       </c>
@@ -3912,7 +3915,7 @@
       <c r="A63" s="16">
         <v>51</v>
       </c>
-      <c r="B63" s="34"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="15" t="s">
         <v>101</v>
       </c>
@@ -3938,7 +3941,7 @@
       <c r="A64" s="16">
         <v>52</v>
       </c>
-      <c r="B64" s="34"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="15" t="s">
         <v>43</v>
       </c>
@@ -3964,7 +3967,7 @@
       <c r="A65" s="16">
         <v>53</v>
       </c>
-      <c r="B65" s="34"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="15" t="s">
         <v>44</v>
       </c>
@@ -3990,7 +3993,7 @@
       <c r="A66" s="16">
         <v>54</v>
       </c>
-      <c r="B66" s="34"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="15" t="s">
         <v>86</v>
       </c>
@@ -4016,7 +4019,7 @@
       <c r="A67" s="16">
         <v>55</v>
       </c>
-      <c r="B67" s="34"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="15" t="s">
         <v>87</v>
       </c>
@@ -4044,7 +4047,7 @@
       <c r="A68" s="16">
         <v>56</v>
       </c>
-      <c r="B68" s="34"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="29" t="s">
         <v>45</v>
       </c>
@@ -4072,7 +4075,7 @@
       <c r="A69" s="16">
         <v>57</v>
       </c>
-      <c r="B69" s="34"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="31"/>
       <c r="D69" s="15" t="s">
         <v>91</v>
@@ -4096,7 +4099,7 @@
       <c r="A70" s="16">
         <v>58</v>
       </c>
-      <c r="B70" s="34"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="15" t="s">
         <v>46</v>
       </c>
@@ -4122,7 +4125,7 @@
       <c r="A71" s="16">
         <v>59</v>
       </c>
-      <c r="B71" s="34"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="15" t="s">
         <v>47</v>
       </c>
@@ -4148,7 +4151,7 @@
       <c r="A72" s="16">
         <v>60</v>
       </c>
-      <c r="B72" s="34"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="15" t="s">
         <v>32</v>
       </c>
@@ -4174,7 +4177,7 @@
       <c r="A73" s="16">
         <v>61</v>
       </c>
-      <c r="B73" s="34"/>
+      <c r="B73" s="36"/>
       <c r="C73" s="15" t="s">
         <v>31</v>
       </c>
@@ -4200,7 +4203,7 @@
       <c r="A74" s="16">
         <v>62</v>
       </c>
-      <c r="B74" s="34"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="15" t="s">
         <v>33</v>
       </c>
@@ -4226,7 +4229,7 @@
       <c r="A75" s="16">
         <v>63</v>
       </c>
-      <c r="B75" s="35"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="19" t="s">
         <v>102</v>
       </c>
@@ -4272,16 +4275,6 @@
   </sheetData>
   <autoFilter ref="A12:L93"/>
   <mergeCells count="25">
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="C30:C43"/>
-    <mergeCell ref="C13:C24"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="F42:F43"/>
     <mergeCell ref="C59:C61"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="A1:C1"/>
@@ -4297,6 +4290,16 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A7:C7"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="C30:C43"/>
+    <mergeCell ref="C13:C24"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="F42:F43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4328,11 +4331,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4350,11 +4353,11 @@
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
@@ -4372,11 +4375,11 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
@@ -4394,11 +4397,11 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="7"/>
       <c r="E4" s="28" t="s">
         <v>8</v>
@@ -4426,11 +4429,11 @@
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="4" t="s">
         <v>211</v>
       </c>
@@ -4444,11 +4447,11 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="4" t="s">
         <v>212</v>
       </c>
@@ -4462,11 +4465,11 @@
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="4" t="s">
         <v>213</v>
       </c>
@@ -4480,11 +4483,11 @@
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="11" t="s">
         <v>214</v>
       </c>
@@ -4582,7 +4585,9 @@
       <c r="D15" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>512</v>
+      </c>
       <c r="F15" s="15"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -6557,18 +6562,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6597,11 +6602,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6619,11 +6624,11 @@
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="1" t="s">
         <v>295</v>
       </c>
@@ -6641,11 +6646,11 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
@@ -6663,11 +6668,11 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="7"/>
       <c r="E4" s="26" t="s">
         <v>8</v>
@@ -6695,11 +6700,11 @@
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="4" t="s">
         <v>296</v>
       </c>
@@ -6713,11 +6718,11 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="4" t="s">
         <v>297</v>
       </c>
@@ -6731,11 +6736,11 @@
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="4" t="s">
         <v>24</v>
       </c>
@@ -6749,11 +6754,11 @@
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="11" t="s">
         <v>24</v>
       </c>
@@ -7692,18 +7697,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
     <mergeCell ref="G44:G48"/>
     <mergeCell ref="B13:B48"/>
     <mergeCell ref="C40:C48"/>
@@ -7718,6 +7711,18 @@
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="G29:G33"/>
     <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7734,11 +7739,11 @@
   <sheetFormatPr defaultColWidth="34.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7756,11 +7761,11 @@
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="1" t="s">
         <v>314</v>
       </c>
@@ -7778,11 +7783,11 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
@@ -7800,11 +7805,11 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="7"/>
       <c r="E4" s="22" t="s">
         <v>8</v>
@@ -7832,11 +7837,11 @@
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="4" t="s">
         <v>211</v>
       </c>
@@ -7850,11 +7855,11 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="4" t="s">
         <v>212</v>
       </c>
@@ -7868,11 +7873,11 @@
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="4" t="s">
         <v>213</v>
       </c>
@@ -7886,11 +7891,11 @@
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="11" t="s">
         <v>214</v>
       </c>
@@ -8202,11 +8207,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8224,11 +8229,11 @@
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="1" t="s">
         <v>326</v>
       </c>
@@ -8246,11 +8251,11 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
@@ -8268,11 +8273,11 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="7"/>
       <c r="E4" s="24" t="s">
         <v>8</v>
@@ -8300,11 +8305,11 @@
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="4"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -8316,11 +8321,11 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="4"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -8332,11 +8337,11 @@
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="4"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -8348,11 +8353,11 @@
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="11"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -8534,11 +8539,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8556,11 +8561,11 @@
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="1" t="s">
         <v>327</v>
       </c>
@@ -8578,11 +8583,11 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
@@ -8600,11 +8605,11 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="7"/>
       <c r="E4" s="22" t="s">
         <v>8</v>
@@ -8632,11 +8637,11 @@
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="4"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -8648,11 +8653,11 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="4"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -8664,11 +8669,11 @@
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="4"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -8680,11 +8685,11 @@
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="11"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>

--- a/trunk/03_Testing/QA_Testing/TestCases_310320.xlsx
+++ b/trunk/03_Testing/QA_Testing/TestCases_310320.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OTTOPro\trunk\03_Testing\QA_Testing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7455" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -22,9 +17,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WGWAMask!$A$12:$L$93</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="514">
   <si>
     <t xml:space="preserve">Project Name: </t>
   </si>
@@ -1856,12 +1851,15 @@
   <si>
     <t>sdfsafa</t>
   </si>
+  <si>
+    <t>test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1973,7 +1971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2066,12 +2064,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2084,6 +2076,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2094,6 +2092,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2156,7 +2157,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2191,7 +2192,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2368,21 +2369,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L94"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection sqref="A1:L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="28.140625" style="3" customWidth="1"/>
@@ -2398,12 +2399,12 @@
     <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2414,12 +2415,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:12" s="5" customFormat="1">
+      <c r="A2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
@@ -2430,12 +2431,12 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:12" s="5" customFormat="1">
+      <c r="A3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
@@ -2446,19 +2447,19 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:12" s="5" customFormat="1">
+      <c r="A4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="7"/>
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="5" customFormat="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -2466,50 +2467,50 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:12" s="5" customFormat="1">
+      <c r="A6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="4"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:12" s="5" customFormat="1">
+      <c r="A7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="4"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:12" s="5" customFormat="1">
+      <c r="A8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="4"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:12" s="5" customFormat="1">
+      <c r="A9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="11"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="8" customFormat="1" ht="75">
       <c r="A12" s="12" t="s">
         <v>13</v>
       </c>
@@ -2547,11 +2548,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="45" customHeight="1">
       <c r="A13" s="16">
         <v>1</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="29" t="s">
@@ -2579,11 +2580,11 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="90" customHeight="1">
       <c r="A14" s="16">
         <v>2</v>
       </c>
-      <c r="B14" s="36"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="30"/>
       <c r="D14" s="15" t="s">
         <v>48</v>
@@ -2605,11 +2606,11 @@
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
-    <row r="15" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="90" customHeight="1">
       <c r="A15" s="16">
         <v>3</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="30"/>
       <c r="D15" s="15" t="s">
         <v>50</v>
@@ -2631,11 +2632,11 @@
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
     </row>
-    <row r="16" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="60" customHeight="1">
       <c r="A16" s="16">
         <v>4</v>
       </c>
-      <c r="B16" s="36"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="30"/>
       <c r="D16" s="14" t="s">
         <v>51</v>
@@ -2659,11 +2660,11 @@
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
     </row>
-    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="45">
       <c r="A17" s="16">
         <v>5</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="30"/>
       <c r="D17" s="14" t="s">
         <v>52</v>
@@ -2687,11 +2688,11 @@
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
     </row>
-    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="45">
       <c r="A18" s="16">
         <v>6</v>
       </c>
-      <c r="B18" s="36"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="30"/>
       <c r="D18" s="14" t="s">
         <v>53</v>
@@ -2715,11 +2716,11 @@
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
     </row>
-    <row r="19" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="60" customHeight="1">
       <c r="A19" s="16">
         <v>7</v>
       </c>
-      <c r="B19" s="36"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="30"/>
       <c r="D19" s="15" t="s">
         <v>54</v>
@@ -2743,11 +2744,11 @@
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
     </row>
-    <row r="20" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="60">
       <c r="A20" s="16">
         <v>8</v>
       </c>
-      <c r="B20" s="36"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="30"/>
       <c r="D20" s="15" t="s">
         <v>55</v>
@@ -2771,11 +2772,11 @@
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
     </row>
-    <row r="21" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="60" customHeight="1">
       <c r="A21" s="16">
         <v>9</v>
       </c>
-      <c r="B21" s="36"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="30"/>
       <c r="D21" s="15" t="s">
         <v>56</v>
@@ -2797,11 +2798,11 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
     </row>
-    <row r="22" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="75" customHeight="1">
       <c r="A22" s="16">
         <v>10</v>
       </c>
-      <c r="B22" s="36"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="30"/>
       <c r="D22" s="15" t="s">
         <v>57</v>
@@ -2825,11 +2826,11 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="45">
       <c r="A23" s="16">
         <v>11</v>
       </c>
-      <c r="B23" s="36"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="30"/>
       <c r="D23" s="15" t="s">
         <v>58</v>
@@ -2853,11 +2854,11 @@
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="60">
       <c r="A24" s="16">
         <v>12</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="31"/>
       <c r="D24" s="15" t="s">
         <v>97</v>
@@ -2879,11 +2880,11 @@
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="45">
       <c r="A25" s="16">
         <v>13</v>
       </c>
-      <c r="B25" s="36"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="29" t="s">
         <v>35</v>
       </c>
@@ -2909,11 +2910,11 @@
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="90" customHeight="1">
       <c r="A26" s="16">
         <v>14</v>
       </c>
-      <c r="B26" s="36"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="30"/>
       <c r="D26" s="15" t="s">
         <v>59</v>
@@ -2935,11 +2936,11 @@
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
     </row>
-    <row r="27" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="90" customHeight="1">
       <c r="A27" s="16">
         <v>15</v>
       </c>
-      <c r="B27" s="36"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="30"/>
       <c r="D27" s="15" t="s">
         <v>61</v>
@@ -2961,11 +2962,11 @@
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
     </row>
-    <row r="28" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="60">
       <c r="A28" s="16">
         <v>16</v>
       </c>
-      <c r="B28" s="36"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="30"/>
       <c r="D28" s="15" t="s">
         <v>97</v>
@@ -2987,11 +2988,11 @@
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
     </row>
-    <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="45">
       <c r="A29" s="16">
         <v>17</v>
       </c>
-      <c r="B29" s="36"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="31"/>
       <c r="D29" s="15" t="s">
         <v>62</v>
@@ -3015,11 +3016,11 @@
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
     </row>
-    <row r="30" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="105">
       <c r="A30" s="16">
         <v>18</v>
       </c>
-      <c r="B30" s="36"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="29" t="s">
         <v>36</v>
       </c>
@@ -3045,11 +3046,11 @@
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
     </row>
-    <row r="31" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="105">
       <c r="A31" s="16">
         <v>19</v>
       </c>
-      <c r="B31" s="36"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="30"/>
       <c r="D31" s="15" t="s">
         <v>64</v>
@@ -3071,11 +3072,11 @@
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
     </row>
-    <row r="32" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="105">
       <c r="A32" s="16">
         <v>20</v>
       </c>
-      <c r="B32" s="36"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="30"/>
       <c r="D32" s="15" t="s">
         <v>65</v>
@@ -3099,11 +3100,11 @@
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
     </row>
-    <row r="33" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="120">
       <c r="A33" s="16">
         <v>21</v>
       </c>
-      <c r="B33" s="36"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="30"/>
       <c r="D33" s="15" t="s">
         <v>66</v>
@@ -3127,11 +3128,11 @@
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
     </row>
-    <row r="34" spans="1:12" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="133.5" customHeight="1">
       <c r="A34" s="16">
         <v>22</v>
       </c>
-      <c r="B34" s="36"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="30"/>
       <c r="D34" s="15" t="s">
         <v>67</v>
@@ -3155,11 +3156,11 @@
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
     </row>
-    <row r="35" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="105">
       <c r="A35" s="16">
         <v>23</v>
       </c>
-      <c r="B35" s="36"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="30"/>
       <c r="D35" s="15" t="s">
         <v>68</v>
@@ -3181,11 +3182,11 @@
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
     </row>
-    <row r="36" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="105">
       <c r="A36" s="16">
         <v>24</v>
       </c>
-      <c r="B36" s="36"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="30"/>
       <c r="D36" s="15" t="s">
         <v>69</v>
@@ -3209,11 +3210,11 @@
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
     </row>
-    <row r="37" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="105">
       <c r="A37" s="16">
         <v>25</v>
       </c>
-      <c r="B37" s="36"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="30"/>
       <c r="D37" s="15" t="s">
         <v>70</v>
@@ -3237,11 +3238,11 @@
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
     </row>
-    <row r="38" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="105">
       <c r="A38" s="16">
         <v>26</v>
       </c>
-      <c r="B38" s="36"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="30"/>
       <c r="D38" s="15" t="s">
         <v>71</v>
@@ -3263,11 +3264,11 @@
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
     </row>
-    <row r="39" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="105">
       <c r="A39" s="16">
         <v>27</v>
       </c>
-      <c r="B39" s="36"/>
+      <c r="B39" s="34"/>
       <c r="C39" s="30"/>
       <c r="D39" s="15" t="s">
         <v>72</v>
@@ -3289,11 +3290,11 @@
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
     </row>
-    <row r="40" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="60">
       <c r="A40" s="16">
         <v>28</v>
       </c>
-      <c r="B40" s="36"/>
+      <c r="B40" s="34"/>
       <c r="C40" s="30"/>
       <c r="D40" s="15" t="s">
         <v>73</v>
@@ -3317,11 +3318,11 @@
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
     </row>
-    <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="45">
       <c r="A41" s="16">
         <v>29</v>
       </c>
-      <c r="B41" s="36"/>
+      <c r="B41" s="34"/>
       <c r="C41" s="30"/>
       <c r="D41" s="15" t="s">
         <v>74</v>
@@ -3345,11 +3346,11 @@
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
     </row>
-    <row r="42" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="105" customHeight="1">
       <c r="A42" s="16">
         <v>30</v>
       </c>
-      <c r="B42" s="36"/>
+      <c r="B42" s="34"/>
       <c r="C42" s="30"/>
       <c r="D42" s="15" t="s">
         <v>75</v>
@@ -3357,7 +3358,7 @@
       <c r="E42" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="F42" s="32" t="s">
+      <c r="F42" s="36" t="s">
         <v>151</v>
       </c>
       <c r="G42" s="15" t="s">
@@ -3373,11 +3374,11 @@
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
     </row>
-    <row r="43" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="105" customHeight="1">
       <c r="A43" s="16">
         <v>31</v>
       </c>
-      <c r="B43" s="36"/>
+      <c r="B43" s="34"/>
       <c r="C43" s="31"/>
       <c r="D43" s="15" t="s">
         <v>76</v>
@@ -3385,7 +3386,7 @@
       <c r="E43" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="F43" s="33"/>
+      <c r="F43" s="37"/>
       <c r="G43" s="15" t="s">
         <v>170</v>
       </c>
@@ -3399,11 +3400,11 @@
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
     </row>
-    <row r="44" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="105">
       <c r="A44" s="16">
         <v>32</v>
       </c>
-      <c r="B44" s="36"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="29" t="s">
         <v>37</v>
       </c>
@@ -3429,11 +3430,11 @@
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
     </row>
-    <row r="45" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="105">
       <c r="A45" s="16">
         <v>33</v>
       </c>
-      <c r="B45" s="36"/>
+      <c r="B45" s="34"/>
       <c r="C45" s="30"/>
       <c r="D45" s="15" t="s">
         <v>78</v>
@@ -3457,11 +3458,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="105">
       <c r="A46" s="16">
         <v>34</v>
       </c>
-      <c r="B46" s="36"/>
+      <c r="B46" s="34"/>
       <c r="C46" s="31"/>
       <c r="D46" s="15" t="s">
         <v>79</v>
@@ -3483,11 +3484,11 @@
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
     </row>
-    <row r="47" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="60">
       <c r="A47" s="16">
         <v>35</v>
       </c>
-      <c r="B47" s="36"/>
+      <c r="B47" s="34"/>
       <c r="C47" s="29" t="s">
         <v>38</v>
       </c>
@@ -3513,11 +3514,11 @@
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
     </row>
-    <row r="48" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="90">
       <c r="A48" s="16">
         <v>36</v>
       </c>
-      <c r="B48" s="36"/>
+      <c r="B48" s="34"/>
       <c r="C48" s="30"/>
       <c r="D48" s="14" t="s">
         <v>80</v>
@@ -3539,11 +3540,11 @@
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
     </row>
-    <row r="49" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="90">
       <c r="A49" s="16">
         <v>37</v>
       </c>
-      <c r="B49" s="36"/>
+      <c r="B49" s="34"/>
       <c r="C49" s="30"/>
       <c r="D49" s="14" t="s">
         <v>81</v>
@@ -3565,11 +3566,11 @@
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
     </row>
-    <row r="50" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="45">
       <c r="A50" s="16">
         <v>38</v>
       </c>
-      <c r="B50" s="36"/>
+      <c r="B50" s="34"/>
       <c r="C50" s="30"/>
       <c r="D50" s="15" t="s">
         <v>82</v>
@@ -3591,11 +3592,11 @@
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
     </row>
-    <row r="51" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="60">
       <c r="A51" s="16">
         <v>39</v>
       </c>
-      <c r="B51" s="36"/>
+      <c r="B51" s="34"/>
       <c r="C51" s="31"/>
       <c r="D51" s="15" t="s">
         <v>99</v>
@@ -3615,11 +3616,11 @@
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
     </row>
-    <row r="52" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="45">
       <c r="A52" s="16">
         <v>40</v>
       </c>
-      <c r="B52" s="36"/>
+      <c r="B52" s="34"/>
       <c r="C52" s="29" t="s">
         <v>39</v>
       </c>
@@ -3643,11 +3644,11 @@
       <c r="K52" s="14"/>
       <c r="L52" s="14"/>
     </row>
-    <row r="53" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="60">
       <c r="A53" s="16">
         <v>41</v>
       </c>
-      <c r="B53" s="36"/>
+      <c r="B53" s="34"/>
       <c r="C53" s="30"/>
       <c r="D53" s="15" t="s">
         <v>48</v>
@@ -3669,11 +3670,11 @@
       <c r="K53" s="14"/>
       <c r="L53" s="14"/>
     </row>
-    <row r="54" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="60">
       <c r="A54" s="16">
         <v>42</v>
       </c>
-      <c r="B54" s="36"/>
+      <c r="B54" s="34"/>
       <c r="C54" s="31"/>
       <c r="D54" s="15" t="s">
         <v>50</v>
@@ -3695,11 +3696,11 @@
       <c r="K54" s="14"/>
       <c r="L54" s="14"/>
     </row>
-    <row r="55" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="105">
       <c r="A55" s="16">
         <v>43</v>
       </c>
-      <c r="B55" s="36"/>
+      <c r="B55" s="34"/>
       <c r="C55" s="29" t="s">
         <v>40</v>
       </c>
@@ -3723,11 +3724,11 @@
       <c r="K55" s="14"/>
       <c r="L55" s="14"/>
     </row>
-    <row r="56" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="105">
       <c r="A56" s="16">
         <v>44</v>
       </c>
-      <c r="B56" s="36"/>
+      <c r="B56" s="34"/>
       <c r="C56" s="30"/>
       <c r="D56" s="15" t="s">
         <v>59</v>
@@ -3749,11 +3750,11 @@
       <c r="K56" s="14"/>
       <c r="L56" s="14"/>
     </row>
-    <row r="57" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="105">
       <c r="A57" s="16">
         <v>45</v>
       </c>
-      <c r="B57" s="36"/>
+      <c r="B57" s="34"/>
       <c r="C57" s="31"/>
       <c r="D57" s="15" t="s">
         <v>61</v>
@@ -3775,11 +3776,11 @@
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
     </row>
-    <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="30">
       <c r="A58" s="16">
         <v>46</v>
       </c>
-      <c r="B58" s="36"/>
+      <c r="B58" s="34"/>
       <c r="C58" s="17" t="s">
         <v>100</v>
       </c>
@@ -3803,11 +3804,11 @@
       <c r="K58" s="14"/>
       <c r="L58" s="14"/>
     </row>
-    <row r="59" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="90">
       <c r="A59" s="16">
         <v>47</v>
       </c>
-      <c r="B59" s="36"/>
+      <c r="B59" s="34"/>
       <c r="C59" s="29" t="s">
         <v>41</v>
       </c>
@@ -3831,11 +3832,11 @@
       <c r="K59" s="14"/>
       <c r="L59" s="14"/>
     </row>
-    <row r="60" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="90">
       <c r="A60" s="16">
         <v>48</v>
       </c>
-      <c r="B60" s="36"/>
+      <c r="B60" s="34"/>
       <c r="C60" s="30"/>
       <c r="D60" s="15" t="s">
         <v>48</v>
@@ -3857,11 +3858,11 @@
       <c r="K60" s="14"/>
       <c r="L60" s="14"/>
     </row>
-    <row r="61" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="90">
       <c r="A61" s="16">
         <v>49</v>
       </c>
-      <c r="B61" s="36"/>
+      <c r="B61" s="34"/>
       <c r="C61" s="31"/>
       <c r="D61" s="15" t="s">
         <v>50</v>
@@ -3883,11 +3884,11 @@
       <c r="K61" s="14"/>
       <c r="L61" s="14"/>
     </row>
-    <row r="62" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="90">
       <c r="A62" s="16">
         <v>50</v>
       </c>
-      <c r="B62" s="36"/>
+      <c r="B62" s="34"/>
       <c r="C62" s="15" t="s">
         <v>42</v>
       </c>
@@ -3911,11 +3912,11 @@
       <c r="K62" s="14"/>
       <c r="L62" s="14"/>
     </row>
-    <row r="63" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="90">
       <c r="A63" s="16">
         <v>51</v>
       </c>
-      <c r="B63" s="36"/>
+      <c r="B63" s="34"/>
       <c r="C63" s="15" t="s">
         <v>101</v>
       </c>
@@ -3937,11 +3938,11 @@
       <c r="K63" s="14"/>
       <c r="L63" s="14"/>
     </row>
-    <row r="64" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="75">
       <c r="A64" s="16">
         <v>52</v>
       </c>
-      <c r="B64" s="36"/>
+      <c r="B64" s="34"/>
       <c r="C64" s="15" t="s">
         <v>43</v>
       </c>
@@ -3963,11 +3964,11 @@
       <c r="K64" s="14"/>
       <c r="L64" s="14"/>
     </row>
-    <row r="65" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="105">
       <c r="A65" s="16">
         <v>53</v>
       </c>
-      <c r="B65" s="36"/>
+      <c r="B65" s="34"/>
       <c r="C65" s="15" t="s">
         <v>44</v>
       </c>
@@ -3989,11 +3990,11 @@
       <c r="K65" s="14"/>
       <c r="L65" s="14"/>
     </row>
-    <row r="66" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="45">
       <c r="A66" s="16">
         <v>54</v>
       </c>
-      <c r="B66" s="36"/>
+      <c r="B66" s="34"/>
       <c r="C66" s="15" t="s">
         <v>86</v>
       </c>
@@ -4015,11 +4016,11 @@
       <c r="K66" s="14"/>
       <c r="L66" s="14"/>
     </row>
-    <row r="67" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="45">
       <c r="A67" s="16">
         <v>55</v>
       </c>
-      <c r="B67" s="36"/>
+      <c r="B67" s="34"/>
       <c r="C67" s="15" t="s">
         <v>87</v>
       </c>
@@ -4043,11 +4044,11 @@
       <c r="K67" s="14"/>
       <c r="L67" s="14"/>
     </row>
-    <row r="68" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="45">
       <c r="A68" s="16">
         <v>56</v>
       </c>
-      <c r="B68" s="36"/>
+      <c r="B68" s="34"/>
       <c r="C68" s="29" t="s">
         <v>45</v>
       </c>
@@ -4071,11 +4072,11 @@
       <c r="K68" s="14"/>
       <c r="L68" s="14"/>
     </row>
-    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="30">
       <c r="A69" s="16">
         <v>57</v>
       </c>
-      <c r="B69" s="36"/>
+      <c r="B69" s="34"/>
       <c r="C69" s="31"/>
       <c r="D69" s="15" t="s">
         <v>91</v>
@@ -4095,11 +4096,11 @@
       <c r="K69" s="14"/>
       <c r="L69" s="14"/>
     </row>
-    <row r="70" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="150">
       <c r="A70" s="16">
         <v>58</v>
       </c>
-      <c r="B70" s="36"/>
+      <c r="B70" s="34"/>
       <c r="C70" s="15" t="s">
         <v>46</v>
       </c>
@@ -4121,11 +4122,11 @@
       <c r="K70" s="14"/>
       <c r="L70" s="14"/>
     </row>
-    <row r="71" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="90">
       <c r="A71" s="16">
         <v>59</v>
       </c>
-      <c r="B71" s="36"/>
+      <c r="B71" s="34"/>
       <c r="C71" s="15" t="s">
         <v>47</v>
       </c>
@@ -4147,11 +4148,11 @@
       <c r="K71" s="14"/>
       <c r="L71" s="14"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72" s="16">
         <v>60</v>
       </c>
-      <c r="B72" s="36"/>
+      <c r="B72" s="34"/>
       <c r="C72" s="15" t="s">
         <v>32</v>
       </c>
@@ -4173,11 +4174,11 @@
       <c r="K72" s="14"/>
       <c r="L72" s="14"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73" s="16">
         <v>61</v>
       </c>
-      <c r="B73" s="36"/>
+      <c r="B73" s="34"/>
       <c r="C73" s="15" t="s">
         <v>31</v>
       </c>
@@ -4199,11 +4200,11 @@
       <c r="K73" s="14"/>
       <c r="L73" s="14"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" s="16">
         <v>62</v>
       </c>
-      <c r="B74" s="36"/>
+      <c r="B74" s="34"/>
       <c r="C74" s="15" t="s">
         <v>33</v>
       </c>
@@ -4225,11 +4226,11 @@
       <c r="K74" s="14"/>
       <c r="L74" s="14"/>
     </row>
-    <row r="75" spans="1:12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" customFormat="1" ht="60">
       <c r="A75" s="16">
         <v>63</v>
       </c>
-      <c r="B75" s="37"/>
+      <c r="B75" s="35"/>
       <c r="C75" s="19" t="s">
         <v>102</v>
       </c>
@@ -4253,28 +4254,38 @@
         <v>142</v>
       </c>
     </row>
-    <row r="76" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:12" customFormat="1"/>
+    <row r="77" spans="1:12" customFormat="1"/>
+    <row r="78" spans="1:12" customFormat="1"/>
+    <row r="79" spans="1:12" customFormat="1"/>
+    <row r="80" spans="1:12" customFormat="1"/>
+    <row r="81" customFormat="1"/>
+    <row r="82" customFormat="1"/>
+    <row r="83" customFormat="1"/>
+    <row r="84" customFormat="1"/>
+    <row r="85" customFormat="1"/>
+    <row r="86" customFormat="1"/>
+    <row r="87" customFormat="1"/>
+    <row r="88" customFormat="1"/>
+    <row r="89" customFormat="1"/>
+    <row r="90" customFormat="1"/>
+    <row r="91" customFormat="1"/>
+    <row r="92" customFormat="1"/>
+    <row r="93" customFormat="1"/>
+    <row r="94" customFormat="1"/>
   </sheetData>
   <autoFilter ref="A12:L93"/>
   <mergeCells count="25">
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="C30:C43"/>
+    <mergeCell ref="C13:C24"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="F42:F43"/>
     <mergeCell ref="C59:C61"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="A1:C1"/>
@@ -4290,16 +4301,6 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="C30:C43"/>
-    <mergeCell ref="C13:C24"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="F42:F43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4307,14 +4308,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="3"/>
     <col min="2" max="2" width="27.85546875" style="3" customWidth="1"/>
@@ -4330,12 +4331,12 @@
     <col min="13" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4352,12 +4353,12 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
@@ -4374,12 +4375,12 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
@@ -4396,17 +4397,19 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="7"/>
       <c r="E4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="42" t="s">
+        <v>513</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -4414,7 +4417,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -4428,12 +4431,12 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="4" t="s">
         <v>211</v>
       </c>
@@ -4446,12 +4449,12 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:12" ht="45">
+      <c r="A7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="4" t="s">
         <v>212</v>
       </c>
@@ -4464,12 +4467,12 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="4" t="s">
         <v>213</v>
       </c>
@@ -4482,12 +4485,12 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="11" t="s">
         <v>214</v>
       </c>
@@ -4500,7 +4503,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="45">
       <c r="A12" s="12" t="s">
         <v>13</v>
       </c>
@@ -4538,7 +4541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="90">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>215</v>
@@ -4562,7 +4565,7 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="30">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="39"/>
@@ -4578,7 +4581,7 @@
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="30">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="40"/>
@@ -4596,7 +4599,7 @@
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
     </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="30">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="29" t="s">
@@ -4616,7 +4619,7 @@
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
     </row>
-    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="45">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="31"/>
@@ -4632,7 +4635,7 @@
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
     </row>
-    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="45">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="29" t="s">
@@ -4652,7 +4655,7 @@
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
     </row>
-    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="45">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="30"/>
@@ -4670,7 +4673,7 @@
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
     </row>
-    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="45">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="31"/>
@@ -4688,7 +4691,7 @@
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
     </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="30">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
@@ -4708,7 +4711,7 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
     </row>
-    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="45">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -4724,7 +4727,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="45">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15" t="s">
@@ -4748,7 +4751,7 @@
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="45">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -4768,7 +4771,7 @@
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="45">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -4788,7 +4791,7 @@
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="30">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -4808,7 +4811,7 @@
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
     </row>
-    <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="30" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -4828,7 +4831,7 @@
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -4844,7 +4847,7 @@
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -4860,7 +4863,7 @@
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -4876,7 +4879,7 @@
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
     </row>
-    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="45">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -4896,7 +4899,7 @@
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
     </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="30">
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -4916,7 +4919,7 @@
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
     </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="30">
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -4936,7 +4939,7 @@
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
     </row>
-    <row r="34" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="31.5" customHeight="1">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -4958,7 +4961,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="45">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="15" t="s">
@@ -4978,7 +4981,7 @@
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
     </row>
-    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="30">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="15" t="s">
@@ -5000,7 +5003,7 @@
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
@@ -5016,7 +5019,7 @@
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
@@ -5032,7 +5035,7 @@
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
     </row>
-    <row r="39" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="120">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="15" t="s">
@@ -5054,7 +5057,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="30">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="15" t="s">
@@ -5076,7 +5079,7 @@
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
     </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="30">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
@@ -5096,7 +5099,7 @@
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
     </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="30">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="15"/>
@@ -5116,7 +5119,7 @@
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
     </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="30">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="15"/>
@@ -5136,7 +5139,7 @@
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
     </row>
-    <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="45">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="15"/>
@@ -5156,7 +5159,7 @@
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
     </row>
-    <row r="45" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="45">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="15"/>
@@ -5176,7 +5179,7 @@
       <c r="K45" s="14"/>
       <c r="L45" s="14"/>
     </row>
-    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="30">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="15"/>
@@ -5192,7 +5195,7 @@
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
     </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="30">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="15"/>
@@ -5212,7 +5215,7 @@
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
     </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="30">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="15"/>
@@ -5232,7 +5235,7 @@
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
     </row>
-    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="30">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="15"/>
@@ -5252,7 +5255,7 @@
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
     </row>
-    <row r="50" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="45">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="15" t="s">
@@ -5272,7 +5275,7 @@
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
     </row>
-    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="30">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="15" t="s">
@@ -5292,7 +5295,7 @@
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
     </row>
-    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="30">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="15" t="s">
@@ -5312,7 +5315,7 @@
       <c r="K52" s="14"/>
       <c r="L52" s="14"/>
     </row>
-    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="30">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="15" t="s">
@@ -5334,7 +5337,7 @@
       <c r="K53" s="14"/>
       <c r="L53" s="14"/>
     </row>
-    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="30">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="15"/>
@@ -5354,7 +5357,7 @@
       <c r="K54" s="14"/>
       <c r="L54" s="14"/>
     </row>
-    <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="30">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="15"/>
@@ -5374,7 +5377,7 @@
       <c r="K55" s="14"/>
       <c r="L55" s="14"/>
     </row>
-    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="30">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="15"/>
@@ -5394,7 +5397,7 @@
       <c r="K56" s="14"/>
       <c r="L56" s="14"/>
     </row>
-    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="30">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="15"/>
@@ -5414,7 +5417,7 @@
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
     </row>
-    <row r="58" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="45">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="15"/>
@@ -5432,7 +5435,7 @@
       <c r="K58" s="14"/>
       <c r="L58" s="14"/>
     </row>
-    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="30">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="15"/>
@@ -5450,7 +5453,7 @@
       <c r="K59" s="14"/>
       <c r="L59" s="14"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
@@ -5468,7 +5471,7 @@
       <c r="K60" s="14"/>
       <c r="L60" s="14"/>
     </row>
-    <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="30">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="15" t="s">
@@ -5486,7 +5489,7 @@
       <c r="K61" s="14"/>
       <c r="L61" s="14"/>
     </row>
-    <row r="62" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="30">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="15" t="s">
@@ -5504,7 +5507,7 @@
       <c r="K62" s="14"/>
       <c r="L62" s="14"/>
     </row>
-    <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="30">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="15" t="s">
@@ -5522,7 +5525,7 @@
       <c r="K63" s="14"/>
       <c r="L63" s="14"/>
     </row>
-    <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="30">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="15" t="s">
@@ -5542,7 +5545,7 @@
       <c r="K64" s="14"/>
       <c r="L64" s="14"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="15"/>
@@ -5560,7 +5563,7 @@
       <c r="K65" s="14"/>
       <c r="L65" s="14"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="15"/>
@@ -5578,7 +5581,7 @@
       <c r="K66" s="14"/>
       <c r="L66" s="14"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="15"/>
@@ -5596,7 +5599,7 @@
       <c r="K67" s="14"/>
       <c r="L67" s="14"/>
     </row>
-    <row r="68" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="45">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="15"/>
@@ -5614,7 +5617,7 @@
       <c r="K68" s="14"/>
       <c r="L68" s="14"/>
     </row>
-    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="30">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="15"/>
@@ -5632,7 +5635,7 @@
       <c r="K69" s="14"/>
       <c r="L69" s="14"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="15"/>
@@ -5650,7 +5653,7 @@
       <c r="K70" s="14"/>
       <c r="L70" s="14"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="15" t="s">
@@ -5668,7 +5671,7 @@
       <c r="K71" s="14"/>
       <c r="L71" s="14"/>
     </row>
-    <row r="72" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="90">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="15" t="s">
@@ -5688,7 +5691,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="15" t="s">
@@ -5706,7 +5709,7 @@
       <c r="K73" s="14"/>
       <c r="L73" s="14"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="15" t="s">
@@ -5724,7 +5727,7 @@
       <c r="K74" s="14"/>
       <c r="L74" s="14"/>
     </row>
-    <row r="75" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="30">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="15" t="s">
@@ -5742,7 +5745,7 @@
       <c r="K75" s="14"/>
       <c r="L75" s="14"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="15" t="s">
@@ -5760,7 +5763,7 @@
       <c r="K76" s="14"/>
       <c r="L76" s="14"/>
     </row>
-    <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="30">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="13" t="s">
@@ -5778,7 +5781,7 @@
       <c r="K77" s="14"/>
       <c r="L77" s="14"/>
     </row>
-    <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="30">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="15" t="s">
@@ -5798,7 +5801,7 @@
       <c r="K78" s="14"/>
       <c r="L78" s="14"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="15"/>
@@ -5816,7 +5819,7 @@
       <c r="K79" s="14"/>
       <c r="L79" s="14"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="15"/>
@@ -5834,7 +5837,7 @@
       <c r="K80" s="14"/>
       <c r="L80" s="14"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="15"/>
@@ -5852,7 +5855,7 @@
       <c r="K81" s="14"/>
       <c r="L81" s="14"/>
     </row>
-    <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="30">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="15"/>
@@ -5870,7 +5873,7 @@
       <c r="K82" s="14"/>
       <c r="L82" s="14"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="15"/>
@@ -5888,7 +5891,7 @@
       <c r="K83" s="14"/>
       <c r="L83" s="14"/>
     </row>
-    <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="30">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="15"/>
@@ -5908,7 +5911,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="30">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="15"/>
@@ -5926,7 +5929,7 @@
       <c r="K85" s="14"/>
       <c r="L85" s="14"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="15"/>
@@ -5944,7 +5947,7 @@
       <c r="K86" s="14"/>
       <c r="L86" s="14"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="15"/>
@@ -5962,7 +5965,7 @@
       <c r="K87" s="14"/>
       <c r="L87" s="14"/>
     </row>
-    <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="30">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="15"/>
@@ -5980,7 +5983,7 @@
       <c r="K88" s="14"/>
       <c r="L88" s="14"/>
     </row>
-    <row r="89" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="30">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15" t="s">
@@ -6000,7 +6003,7 @@
       <c r="K89" s="14"/>
       <c r="L89" s="15"/>
     </row>
-    <row r="90" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="27.75" customHeight="1">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="15"/>
@@ -6018,7 +6021,7 @@
       <c r="K90" s="14"/>
       <c r="L90" s="14"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="15"/>
@@ -6036,7 +6039,7 @@
       <c r="K91" s="14"/>
       <c r="L91" s="14"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="15" t="s">
@@ -6056,7 +6059,7 @@
       <c r="K92" s="14"/>
       <c r="L92" s="14"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="15"/>
@@ -6074,7 +6077,7 @@
       <c r="K93" s="14"/>
       <c r="L93" s="14"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="15" t="s">
@@ -6092,7 +6095,7 @@
       <c r="K94" s="14"/>
       <c r="L94" s="14"/>
     </row>
-    <row r="95" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="27.75" customHeight="1">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="15" t="s">
@@ -6110,7 +6113,7 @@
       <c r="K95" s="14"/>
       <c r="L95" s="14"/>
     </row>
-    <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="30">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="15" t="s">
@@ -6128,7 +6131,7 @@
       <c r="K96" s="14"/>
       <c r="L96" s="14"/>
     </row>
-    <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="30">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="15" t="s">
@@ -6146,7 +6149,7 @@
       <c r="K97" s="14"/>
       <c r="L97" s="14"/>
     </row>
-    <row r="98" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="30">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="15" t="s">
@@ -6164,7 +6167,7 @@
       <c r="K98" s="14"/>
       <c r="L98" s="14"/>
     </row>
-    <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="30">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="15" t="s">
@@ -6182,7 +6185,7 @@
       <c r="K99" s="14"/>
       <c r="L99" s="14"/>
     </row>
-    <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="30">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="15" t="s">
@@ -6200,7 +6203,7 @@
       <c r="K100" s="14"/>
       <c r="L100" s="14"/>
     </row>
-    <row r="101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="30">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="15" t="s">
@@ -6218,7 +6221,7 @@
       <c r="K101" s="14"/>
       <c r="L101" s="14"/>
     </row>
-    <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="30">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="15" t="s">
@@ -6236,7 +6239,7 @@
       <c r="K102" s="14"/>
       <c r="L102" s="14"/>
     </row>
-    <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="30">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="15" t="s">
@@ -6254,7 +6257,7 @@
       <c r="K103" s="14"/>
       <c r="L103" s="14"/>
     </row>
-    <row r="104" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="45">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="15" t="s">
@@ -6272,7 +6275,7 @@
       <c r="K104" s="14"/>
       <c r="L104" s="14"/>
     </row>
-    <row r="105" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="45">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="15" t="s">
@@ -6290,7 +6293,7 @@
       <c r="K105" s="14"/>
       <c r="L105" s="14"/>
     </row>
-    <row r="106" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="45">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="15" t="s">
@@ -6308,7 +6311,7 @@
       <c r="K106" s="14"/>
       <c r="L106" s="14"/>
     </row>
-    <row r="107" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="45">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="15" t="s">
@@ -6326,7 +6329,7 @@
       <c r="K107" s="14"/>
       <c r="L107" s="14"/>
     </row>
-    <row r="108" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="30">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="15" t="s">
@@ -6344,7 +6347,7 @@
       <c r="K108" s="14"/>
       <c r="L108" s="14"/>
     </row>
-    <row r="109" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="30">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="15" t="s">
@@ -6362,7 +6365,7 @@
       <c r="K109" s="14"/>
       <c r="L109" s="14"/>
     </row>
-    <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="30">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="15" t="s">
@@ -6380,7 +6383,7 @@
       <c r="K110" s="14"/>
       <c r="L110" s="14"/>
     </row>
-    <row r="111" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="30">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="15" t="s">
@@ -6398,7 +6401,7 @@
       <c r="K111" s="14"/>
       <c r="L111" s="14"/>
     </row>
-    <row r="112" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="30">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="15" t="s">
@@ -6416,7 +6419,7 @@
       <c r="K112" s="14"/>
       <c r="L112" s="14"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="15" t="s">
@@ -6434,7 +6437,7 @@
       <c r="K113" s="14"/>
       <c r="L113" s="14"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="15" t="s">
@@ -6452,7 +6455,7 @@
       <c r="K114" s="14"/>
       <c r="L114" s="14"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="15" t="s">
@@ -6470,7 +6473,7 @@
       <c r="K115" s="14"/>
       <c r="L115" s="14"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="15" t="s">
@@ -6488,7 +6491,7 @@
       <c r="K116" s="14"/>
       <c r="L116" s="14"/>
     </row>
-    <row r="117" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="34.5" customHeight="1">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="15" t="s">
@@ -6506,7 +6509,7 @@
       <c r="K117" s="14"/>
       <c r="L117" s="14"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" s="15" t="s">
@@ -6524,7 +6527,7 @@
       <c r="K118" s="14"/>
       <c r="L118" s="14"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" s="15" t="s">
@@ -6542,7 +6545,7 @@
       <c r="K119" s="14"/>
       <c r="L119" s="14"/>
     </row>
-    <row r="120" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="45">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="15" t="s">
@@ -6562,25 +6565,25 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6589,7 +6592,7 @@
       <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="34.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="3" customWidth="1"/>
@@ -6601,12 +6604,12 @@
     <col min="10" max="16384" width="34.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:12" hidden="1">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6623,12 +6626,12 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:12" hidden="1">
+      <c r="A2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="1" t="s">
         <v>295</v>
       </c>
@@ -6645,12 +6648,12 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:12" hidden="1">
+      <c r="A3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
@@ -6667,12 +6670,12 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:12" hidden="1">
+      <c r="A4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="7"/>
       <c r="E4" s="26" t="s">
         <v>8</v>
@@ -6685,7 +6688,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -6699,12 +6702,12 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:12" ht="45" hidden="1">
+      <c r="A6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="4" t="s">
         <v>296</v>
       </c>
@@ -6717,12 +6720,12 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:12" ht="75" hidden="1">
+      <c r="A7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="4" t="s">
         <v>297</v>
       </c>
@@ -6735,12 +6738,12 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:12" hidden="1">
+      <c r="A8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="4" t="s">
         <v>24</v>
       </c>
@@ -6753,12 +6756,12 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:12" hidden="1">
+      <c r="A9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="11" t="s">
         <v>24</v>
       </c>
@@ -6771,7 +6774,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30">
       <c r="A12" s="12" t="s">
         <v>13</v>
       </c>
@@ -6809,7 +6812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="60">
       <c r="A13" s="14">
         <v>1</v>
       </c>
@@ -6839,7 +6842,7 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="60">
       <c r="A14" s="14">
         <v>2</v>
       </c>
@@ -6863,7 +6866,7 @@
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
-    <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="60">
       <c r="A15" s="14">
         <v>3</v>
       </c>
@@ -6887,7 +6890,7 @@
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
     </row>
-    <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="75">
       <c r="A16" s="14">
         <v>4</v>
       </c>
@@ -6911,7 +6914,7 @@
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
     </row>
-    <row r="17" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="135">
       <c r="A17" s="14">
         <v>5</v>
       </c>
@@ -6935,7 +6938,7 @@
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
     </row>
-    <row r="18" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="75">
       <c r="A18" s="14">
         <v>6</v>
       </c>
@@ -6961,7 +6964,7 @@
       </c>
       <c r="L18" s="14"/>
     </row>
-    <row r="19" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="150">
       <c r="A19" s="14">
         <v>7</v>
       </c>
@@ -6989,7 +6992,7 @@
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
     </row>
-    <row r="20" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="150">
       <c r="A20" s="14">
         <v>8</v>
       </c>
@@ -7015,7 +7018,7 @@
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
     </row>
-    <row r="21" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="150">
       <c r="A21" s="14">
         <v>9</v>
       </c>
@@ -7041,7 +7044,7 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
     </row>
-    <row r="22" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="165">
       <c r="A22" s="14">
         <v>10</v>
       </c>
@@ -7067,7 +7070,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="75" customHeight="1">
       <c r="A23" s="14">
         <v>11</v>
       </c>
@@ -7095,7 +7098,7 @@
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="90">
       <c r="A24" s="14">
         <v>12</v>
       </c>
@@ -7117,7 +7120,7 @@
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="150">
       <c r="A25" s="14">
         <v>13</v>
       </c>
@@ -7145,7 +7148,7 @@
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="120">
       <c r="A26" s="14">
         <v>14</v>
       </c>
@@ -7171,7 +7174,7 @@
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
     </row>
-    <row r="27" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="90">
       <c r="A27" s="14">
         <v>15</v>
       </c>
@@ -7197,7 +7200,7 @@
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
     </row>
-    <row r="28" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="150">
       <c r="A28" s="14">
         <v>16</v>
       </c>
@@ -7225,7 +7228,7 @@
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
     </row>
-    <row r="29" spans="1:12" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="150" customHeight="1">
       <c r="A29" s="14">
         <v>17</v>
       </c>
@@ -7255,7 +7258,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="14">
         <v>18</v>
       </c>
@@ -7275,7 +7278,7 @@
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="14">
         <v>19</v>
       </c>
@@ -7295,7 +7298,7 @@
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="14">
         <v>20</v>
       </c>
@@ -7315,7 +7318,7 @@
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
     </row>
-    <row r="33" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="90">
       <c r="A33" s="14">
         <v>21</v>
       </c>
@@ -7339,7 +7342,7 @@
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
     </row>
-    <row r="34" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="240">
       <c r="A34" s="14">
         <v>22</v>
       </c>
@@ -7363,7 +7366,7 @@
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
     </row>
-    <row r="35" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="255">
       <c r="A35" s="14">
         <v>23</v>
       </c>
@@ -7391,7 +7394,7 @@
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
     </row>
-    <row r="36" spans="1:12" ht="300" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="300">
       <c r="A36" s="14">
         <v>24</v>
       </c>
@@ -7417,7 +7420,7 @@
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
     </row>
-    <row r="37" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="75">
       <c r="A37" s="14">
         <v>25</v>
       </c>
@@ -7441,7 +7444,7 @@
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
     </row>
-    <row r="38" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="165">
       <c r="A38" s="14">
         <v>26</v>
       </c>
@@ -7469,7 +7472,7 @@
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
     </row>
-    <row r="39" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="150">
       <c r="A39" s="14">
         <v>27</v>
       </c>
@@ -7493,7 +7496,7 @@
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
     </row>
-    <row r="40" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="90">
       <c r="A40" s="14">
         <v>28</v>
       </c>
@@ -7519,7 +7522,7 @@
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
     </row>
-    <row r="41" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="90" customHeight="1">
       <c r="A41" s="14">
         <v>29</v>
       </c>
@@ -7545,7 +7548,7 @@
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
     </row>
-    <row r="42" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="60">
       <c r="A42" s="14">
         <v>30</v>
       </c>
@@ -7567,7 +7570,7 @@
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
     </row>
-    <row r="43" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="60">
       <c r="A43" s="14">
         <v>31</v>
       </c>
@@ -7589,7 +7592,7 @@
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
     </row>
-    <row r="44" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="60" customHeight="1">
       <c r="A44" s="14">
         <v>32</v>
       </c>
@@ -7615,7 +7618,7 @@
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" s="14">
         <v>33</v>
       </c>
@@ -7635,7 +7638,7 @@
       <c r="K45" s="14"/>
       <c r="L45" s="14"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="14">
         <v>34</v>
       </c>
@@ -7655,7 +7658,7 @@
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="14">
         <v>35</v>
       </c>
@@ -7675,7 +7678,7 @@
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="14">
         <v>36</v>
       </c>
@@ -7697,6 +7700,18 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="G44:G48"/>
     <mergeCell ref="B13:B48"/>
     <mergeCell ref="C40:C48"/>
@@ -7711,39 +7726,27 @@
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="G29:G33"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView topLeftCell="D20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="34.28515625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7760,12 +7763,12 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="1" t="s">
         <v>314</v>
       </c>
@@ -7782,12 +7785,12 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
@@ -7804,12 +7807,12 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="7"/>
       <c r="E4" s="22" t="s">
         <v>8</v>
@@ -7822,7 +7825,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -7836,12 +7839,12 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="4" t="s">
         <v>211</v>
       </c>
@@ -7854,12 +7857,12 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:12" ht="45">
+      <c r="A7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="4" t="s">
         <v>212</v>
       </c>
@@ -7872,12 +7875,12 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="4" t="s">
         <v>213</v>
       </c>
@@ -7890,12 +7893,12 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="11" t="s">
         <v>214</v>
       </c>
@@ -7908,7 +7911,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="13"/>
@@ -7922,7 +7925,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="13"/>
@@ -7936,7 +7939,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="12" t="s">
         <v>13</v>
       </c>
@@ -7974,7 +7977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="F13" s="23" t="s">
         <v>298</v>
       </c>
@@ -7982,7 +7985,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="F14" s="23" t="s">
         <v>299</v>
       </c>
@@ -7990,7 +7993,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="F15" s="23" t="s">
         <v>300</v>
       </c>
@@ -7998,7 +8001,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="F16" s="23" t="s">
         <v>301</v>
       </c>
@@ -8006,7 +8009,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:10">
       <c r="F17" s="23" t="s">
         <v>302</v>
       </c>
@@ -8014,7 +8017,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:10">
       <c r="F18" s="23" t="s">
         <v>303</v>
       </c>
@@ -8022,7 +8025,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="6:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:10" ht="30">
       <c r="F19" s="23" t="s">
         <v>315</v>
       </c>
@@ -8030,7 +8033,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="6:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:10" ht="30">
       <c r="F20" s="23" t="s">
         <v>316</v>
       </c>
@@ -8038,7 +8041,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" spans="6:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:10" ht="45">
       <c r="F21" s="23" t="s">
         <v>317</v>
       </c>
@@ -8046,7 +8049,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="6:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:10" ht="45">
       <c r="F22" s="23" t="s">
         <v>304</v>
       </c>
@@ -8054,7 +8057,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="6:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:10" ht="30">
       <c r="F23" s="23" t="s">
         <v>318</v>
       </c>
@@ -8062,7 +8065,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="6:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:10" ht="30">
       <c r="F24" s="23" t="s">
         <v>305</v>
       </c>
@@ -8070,7 +8073,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="6:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:10" ht="45">
       <c r="F25" s="23" t="s">
         <v>309</v>
       </c>
@@ -8078,7 +8081,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="26" spans="6:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:10" ht="30">
       <c r="F26" s="25" t="s">
         <v>307</v>
       </c>
@@ -8086,7 +8089,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="6:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:10" ht="60">
       <c r="F27" s="23" t="s">
         <v>308</v>
       </c>
@@ -8094,7 +8097,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="6:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:10" ht="30">
       <c r="F28" s="23" t="s">
         <v>310</v>
       </c>
@@ -8102,7 +8105,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="6:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:10" ht="60">
       <c r="F29" s="23" t="s">
         <v>323</v>
       </c>
@@ -8110,7 +8113,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="30" spans="6:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:10" ht="30">
       <c r="F30" s="25" t="s">
         <v>311</v>
       </c>
@@ -8118,7 +8121,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="31" spans="6:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:10" ht="45">
       <c r="F31" s="23" t="s">
         <v>319</v>
       </c>
@@ -8126,7 +8129,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="32" spans="6:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:10" ht="30">
       <c r="F32" s="23" t="s">
         <v>320</v>
       </c>
@@ -8134,7 +8137,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="33" spans="6:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:10" ht="45">
       <c r="F33" s="23" t="s">
         <v>321</v>
       </c>
@@ -8142,7 +8145,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="6:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:10" ht="30">
       <c r="F34" s="23" t="s">
         <v>322</v>
       </c>
@@ -8150,7 +8153,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="6:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:10" ht="60">
       <c r="F35" s="23" t="s">
         <v>324</v>
       </c>
@@ -8158,7 +8161,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="36" spans="6:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:10" ht="75">
       <c r="F36" s="23" t="s">
         <v>325</v>
       </c>
@@ -8166,7 +8169,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:10">
       <c r="F37" s="23" t="s">
         <v>313</v>
       </c>
@@ -8190,14 +8193,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView topLeftCell="C10" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="34.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="34.28515625" style="3"/>
     <col min="3" max="3" width="34.28515625" style="13"/>
@@ -8206,12 +8209,12 @@
     <col min="10" max="16384" width="34.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8228,12 +8231,12 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="1" t="s">
         <v>326</v>
       </c>
@@ -8250,12 +8253,12 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
@@ -8272,12 +8275,12 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="7"/>
       <c r="E4" s="24" t="s">
         <v>8</v>
@@ -8290,7 +8293,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -8304,12 +8307,12 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="4"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -8320,12 +8323,12 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="4"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -8336,12 +8339,12 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="4"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -8352,12 +8355,12 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="11"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -8368,15 +8371,15 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="D10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="D11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="12" t="s">
         <v>13</v>
       </c>
@@ -8414,7 +8417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="C13" s="13" t="s">
         <v>328</v>
       </c>
@@ -8422,7 +8425,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="C14" s="13" t="s">
         <v>329</v>
       </c>
@@ -8430,7 +8433,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="C15" s="13" t="s">
         <v>330</v>
       </c>
@@ -8438,7 +8441,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="C16" s="13" t="s">
         <v>331</v>
       </c>
@@ -8446,7 +8449,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:10">
       <c r="C17" s="13" t="s">
         <v>332</v>
       </c>
@@ -8454,7 +8457,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10">
       <c r="C18" s="13" t="s">
         <v>334</v>
       </c>
@@ -8462,7 +8465,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:10" ht="30">
       <c r="C19" s="13" t="s">
         <v>336</v>
       </c>
@@ -8470,7 +8473,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:10" ht="30">
       <c r="C20" s="13" t="s">
         <v>335</v>
       </c>
@@ -8478,7 +8481,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:10" ht="30">
       <c r="C21" s="13" t="s">
         <v>337</v>
       </c>
@@ -8486,7 +8489,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:10" ht="30">
       <c r="C22" s="13" t="s">
         <v>338</v>
       </c>
@@ -8494,7 +8497,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:10">
       <c r="C23" s="13" t="s">
         <v>339</v>
       </c>
@@ -8502,7 +8505,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:10">
       <c r="C24" s="13" t="s">
         <v>333</v>
       </c>
@@ -8526,24 +8529,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="34.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="34.28515625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8560,12 +8563,12 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="1" t="s">
         <v>327</v>
       </c>
@@ -8582,12 +8585,12 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
@@ -8604,12 +8607,12 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="7"/>
       <c r="E4" s="22" t="s">
         <v>8</v>
@@ -8622,7 +8625,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -8636,12 +8639,12 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="4"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -8652,12 +8655,12 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="4"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -8668,12 +8671,12 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="4"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -8684,12 +8687,12 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="11"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -8700,7 +8703,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="13"/>
@@ -8714,7 +8717,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="13"/>
@@ -8728,7 +8731,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="12" t="s">
         <v>13</v>
       </c>
@@ -8766,7 +8769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="30">
       <c r="C13" s="23" t="s">
         <v>340</v>
       </c>
@@ -8774,7 +8777,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="30">
       <c r="C14" s="23" t="s">
         <v>341</v>
       </c>
@@ -8782,7 +8785,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="C15" s="23" t="s">
         <v>342</v>
       </c>
@@ -8790,7 +8793,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="C16" s="23" t="s">
         <v>343</v>
       </c>
@@ -8798,7 +8801,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" ht="30">
       <c r="C17" s="23" t="s">
         <v>344</v>
       </c>
@@ -8806,7 +8809,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" ht="30">
       <c r="C18" s="23" t="s">
         <v>345</v>
       </c>
@@ -8814,7 +8817,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" ht="30">
       <c r="C19" s="23" t="s">
         <v>346</v>
       </c>
@@ -8822,7 +8825,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4">
       <c r="C20" s="23" t="s">
         <v>347</v>
       </c>
